--- a/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006225</t>
+          <t>110013</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>人保量化基本面混合A</t>
+          <t>易方达科翔混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.70</t>
+          <t>56.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006226</t>
+          <t>110001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保量化基本面混合C</t>
+          <t>易方达平稳增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.70</t>
+          <t>31.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110013</t>
+          <t>001018</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达科翔混合</t>
+          <t>易方达新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>24.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>310358</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达平稳增长混合</t>
+          <t>申万菱信新经济混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.86</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8531</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519656</t>
+          <t>001457</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - A</t>
+          <t>华商新常态灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>60.30</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519657</t>
+          <t>519656</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河灵活配置混合 - C</t>
+          <t>银河灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>60.30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.33</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001018</t>
+          <t>519657</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达新经济灵活配置混合</t>
+          <t>银河灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>006225</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>人保量化基本面混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.73</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>34.94</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0.52</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>34.94</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.52</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -772,26 +882,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001457</t>
+          <t>006226</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商新常态灵活配置混合</t>
+          <t>人保量化基本面混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +944,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,25 +974,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110013</t>
+          <t>501203</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科翔混合</t>
+          <t>易方达创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>83.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -874,26 +1012,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>110013</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>易方达科翔混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>51.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1050,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006533</t>
+          <t>110001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达科融混合</t>
+          <t>易方达平稳增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>29.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -940,15 +1098,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>8.19</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,25 +1126,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>310358</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>申万菱信新经济混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9811</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,25 +1164,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501203</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达创新未来18个月封闭运作混合A</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>080001</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长盛成长价值混合</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>74.81</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>69.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>110001</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达平稳增长混合</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.25</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>006533</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>易方达科融混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>080001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+          <t>长盛成长价值混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>69.79</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1351,4 +1352,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1232</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0751</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3939</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2092,4 +2093,1008 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3265</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3097,4 +3098,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3106,7 +3107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3117,17 +3118,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3137,14 +3158,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3153,14 +3196,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.57</v>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9994</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3169,14 +3234,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.16</v>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3185,13 +3272,871 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4035,7 +4036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4046,17 +4047,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4066,14 +4087,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.73</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4082,14 +4125,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16</v>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4098,14 +4163,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.57</v>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4114,14 +4201,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.16</v>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7550</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4130,13 +4239,545 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>53.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4660,7 +4661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4671,17 +4672,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4691,14 +4712,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.79</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4707,14 +4750,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.73</v>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4723,14 +4788,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5802</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4739,14 +4826,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.57</v>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4755,14 +4864,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.16</v>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3838</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4771,13 +4902,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>11.62</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>14.79</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>15.73</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>17.57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>15.16</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.47</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4380</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3251</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4283</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1545,7 +2074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2473,7 +3002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3477,7 +4006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4217,7 +4746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4653,7 +5182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603128-华贸物流.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>12.23</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>11.62</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>14.79</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>15.73</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>17.57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>15.16</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.47</v>
       </c>
     </row>
@@ -616,7 +633,1333 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8531</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6946</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5422</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7637</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014031</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014032</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,7 +2471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1450,7 +2793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2074,7 +3417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3002,7 +4345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4006,7 +5349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4746,7 +6089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5180,476 +6523,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110013</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达科翔混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7160</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>110001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达平稳增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4648</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001018</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>24.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2814</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>310358</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信新经济混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8531</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001457</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商新常态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0816</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519656</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519657</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006225</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>人保量化基本面混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005429</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005430</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006226</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>人保量化基本面混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.70</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>